--- a/nuno-dataset/test-solidos-03/content/results/metrics_5_7.xlsx
+++ b/nuno-dataset/test-solidos-03/content/results/metrics_5_7.xlsx
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_0</t>
+          <t>model_5_7_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7209991794928428</v>
+        <v>0.8771094392427847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8946756620708929</v>
+        <v>0.9301078009357947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558906936029399</v>
+        <v>0.874844633396441</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9332971747114418</v>
+        <v>0.9022429595603562</v>
       </c>
       <c r="F2" t="n">
-        <v>33.64757919311523</v>
+        <v>14.82063961029053</v>
       </c>
       <c r="G2" t="n">
-        <v>6.672012805938721</v>
+        <v>10.04224586486816</v>
       </c>
       <c r="H2" t="n">
-        <v>3.05615234375</v>
+        <v>20.59262275695801</v>
       </c>
       <c r="I2" t="n">
-        <v>4.970420837402344</v>
+        <v>15.00708675384521</v>
       </c>
     </row>
     <row r="3">
@@ -513,400 +513,400 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7631699926457773</v>
+        <v>0.8781639546846028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7999577035500373</v>
+        <v>0.9365498472691703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9384547303466009</v>
+        <v>0.888915099274789</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8830387831283231</v>
+        <v>0.9125316544033434</v>
       </c>
       <c r="F3" t="n">
-        <v>28.561767578125</v>
+        <v>14.6934642791748</v>
       </c>
       <c r="G3" t="n">
-        <v>12.67213821411133</v>
+        <v>9.116640090942383</v>
       </c>
       <c r="H3" t="n">
-        <v>4.264218330383301</v>
+        <v>18.27751731872559</v>
       </c>
       <c r="I3" t="n">
-        <v>8.715469360351562</v>
+        <v>13.42762660980225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_2</t>
+          <t>model_5_7_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7710510034177052</v>
+        <v>0.8782472888192974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7804637040619571</v>
+        <v>0.9227950817288447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9280148594856449</v>
+        <v>0.8712850641976931</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8696973570307087</v>
+        <v>0.8968239582305247</v>
       </c>
       <c r="F4" t="n">
-        <v>27.61131477355957</v>
+        <v>14.68341255187988</v>
       </c>
       <c r="G4" t="n">
-        <v>13.90703010559082</v>
+        <v>11.09295082092285</v>
       </c>
       <c r="H4" t="n">
-        <v>4.98755407333374</v>
+        <v>21.17830276489258</v>
       </c>
       <c r="I4" t="n">
-        <v>9.709617614746094</v>
+        <v>15.83897876739502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_11</t>
+          <t>model_5_7_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7993417014563386</v>
+        <v>0.8793263858865846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08593413662153782</v>
+        <v>0.9139697663748181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3649569442063908</v>
+        <v>0.8690729193276474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3107441113586116</v>
+        <v>0.8913351697475123</v>
       </c>
       <c r="F5" t="n">
-        <v>24.19944953918457</v>
+        <v>14.55327320098877</v>
       </c>
       <c r="G5" t="n">
-        <v>57.90360641479492</v>
+        <v>12.36098861694336</v>
       </c>
       <c r="H5" t="n">
-        <v>43.99951934814453</v>
+        <v>21.54228019714355</v>
       </c>
       <c r="I5" t="n">
-        <v>51.36051559448242</v>
+        <v>16.68158721923828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_10</t>
+          <t>model_5_7_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.80057221348977</v>
+        <v>0.8799755305899986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08339170096373083</v>
+        <v>0.9489762426088787</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4428008992224706</v>
+        <v>0.9021027342731993</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3436614446922341</v>
+        <v>0.9253404628314125</v>
       </c>
       <c r="F6" t="n">
-        <v>24.05105018615723</v>
+        <v>14.47498607635498</v>
       </c>
       <c r="G6" t="n">
-        <v>58.06465530395508</v>
+        <v>7.331192016601562</v>
       </c>
       <c r="H6" t="n">
-        <v>38.60603332519531</v>
+        <v>16.1076717376709</v>
       </c>
       <c r="I6" t="n">
-        <v>48.90765762329102</v>
+        <v>11.46129322052002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_3</t>
+          <t>model_5_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8068722275000993</v>
+        <v>0.8802532794099973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5869041814984484</v>
+        <v>0.9059604565700067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8914199351531091</v>
+        <v>0.8657072319571046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7665711157279755</v>
+        <v>0.8856688510576619</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2912654876709</v>
+        <v>14.44148921966553</v>
       </c>
       <c r="G7" t="n">
-        <v>26.16850471496582</v>
+        <v>13.51178169250488</v>
       </c>
       <c r="H7" t="n">
-        <v>7.523065567016602</v>
+        <v>22.0960578918457</v>
       </c>
       <c r="I7" t="n">
-        <v>17.39416122436523</v>
+        <v>17.55144500732422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_9</t>
+          <t>model_5_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8236444450310663</v>
+        <v>0.881172544292529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2087242678177581</v>
+        <v>0.8999691667062927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5965500703645179</v>
+        <v>0.8609741662555879</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4673431687803893</v>
+        <v>0.8803128828372921</v>
       </c>
       <c r="F8" t="n">
-        <v>21.26852989196777</v>
+        <v>14.33062648773193</v>
       </c>
       <c r="G8" t="n">
-        <v>50.12518310546875</v>
+        <v>14.37262153625488</v>
       </c>
       <c r="H8" t="n">
-        <v>27.95338439941406</v>
+        <v>22.87482070922852</v>
       </c>
       <c r="I8" t="n">
-        <v>39.69139862060547</v>
+        <v>18.3736629486084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_8</t>
+          <t>model_5_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8258073509949186</v>
+        <v>0.8822574697125392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246604036589809</v>
+        <v>0.8959733158674044</v>
       </c>
       <c r="D9" t="n">
-        <v>0.645548149623878</v>
+        <v>0.8557459865157798</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5058310218103343</v>
+        <v>0.8756957813085476</v>
       </c>
       <c r="F9" t="n">
-        <v>21.00768661499023</v>
+        <v>14.199782371521</v>
       </c>
       <c r="G9" t="n">
-        <v>47.72560119628906</v>
+        <v>14.94675350189209</v>
       </c>
       <c r="H9" t="n">
-        <v>24.55850982666016</v>
+        <v>23.73504638671875</v>
       </c>
       <c r="I9" t="n">
-        <v>36.82344055175781</v>
+        <v>19.08245277404785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_7</t>
+          <t>model_5_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8260648303287587</v>
+        <v>0.8834555120901778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2527496086577843</v>
+        <v>0.8931675212030256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6833376876048243</v>
+        <v>0.8504841918150412</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5251320768324054</v>
+        <v>0.8716518694097017</v>
       </c>
       <c r="F10" t="n">
-        <v>20.97663497924805</v>
+        <v>14.05529975891113</v>
       </c>
       <c r="G10" t="n">
-        <v>47.33629608154297</v>
+        <v>15.34989547729492</v>
       </c>
       <c r="H10" t="n">
-        <v>21.94022750854492</v>
+        <v>24.60080337524414</v>
       </c>
       <c r="I10" t="n">
-        <v>35.38520812988281</v>
+        <v>19.70324897766113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_6</t>
+          <t>model_5_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8276587020039875</v>
+        <v>0.8844677962735175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2749617057049898</v>
+        <v>0.8906202797747602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.706129768498122</v>
+        <v>0.8445823688143396</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5451017849437439</v>
+        <v>0.8674130274311933</v>
       </c>
       <c r="F11" t="n">
-        <v>20.78441047668457</v>
+        <v>13.93321895599365</v>
       </c>
       <c r="G11" t="n">
-        <v>45.92921829223633</v>
+        <v>15.71588802337646</v>
       </c>
       <c r="H11" t="n">
-        <v>20.36105728149414</v>
+        <v>25.57186889648438</v>
       </c>
       <c r="I11" t="n">
-        <v>33.89714431762695</v>
+        <v>20.35397148132324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_12</t>
+          <t>model_5_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8319174929089375</v>
+        <v>0.8852263062140132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2798029630187764</v>
+        <v>0.8879647073388495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2473026496699062</v>
+        <v>0.8380128640488173</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3465166758147178</v>
+        <v>0.8627834037088544</v>
       </c>
       <c r="F12" t="n">
-        <v>20.27079963684082</v>
+        <v>13.84174156188965</v>
       </c>
       <c r="G12" t="n">
-        <v>45.62253952026367</v>
+        <v>16.09744644165039</v>
       </c>
       <c r="H12" t="n">
-        <v>52.15129852294922</v>
+        <v>26.65279197692871</v>
       </c>
       <c r="I12" t="n">
-        <v>48.69489288330078</v>
+        <v>21.06468391418457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_13</t>
+          <t>model_5_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8387489339348404</v>
+        <v>0.8858016942297161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2941050572410718</v>
+        <v>0.8852314546167266</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2116653495676457</v>
+        <v>0.8311234051384951</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3373599841730036</v>
+        <v>0.8579542952035152</v>
       </c>
       <c r="F13" t="n">
-        <v>19.44692611694336</v>
+        <v>13.77234935760498</v>
       </c>
       <c r="G13" t="n">
-        <v>44.71653747558594</v>
+        <v>16.49016571044922</v>
       </c>
       <c r="H13" t="n">
-        <v>54.62046051025391</v>
+        <v>27.78635787963867</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37721252441406</v>
+        <v>21.8060188293457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_5</t>
+          <t>model_5_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8413656912173005</v>
+        <v>0.8862538888848339</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3718702633588516</v>
+        <v>0.8824369993213335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7909732231478854</v>
+        <v>0.8241816745412384</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6258409206385803</v>
+        <v>0.8530683276932408</v>
       </c>
       <c r="F14" t="n">
-        <v>19.13134384155273</v>
+        <v>13.71781444549561</v>
       </c>
       <c r="G14" t="n">
-        <v>39.79032516479492</v>
+        <v>16.89167785644531</v>
       </c>
       <c r="H14" t="n">
-        <v>14.48260498046875</v>
+        <v>28.92852783203125</v>
       </c>
       <c r="I14" t="n">
-        <v>27.88079833984375</v>
+        <v>22.55608749389648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_4</t>
+          <t>model_5_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.842723680308199</v>
+        <v>0.8866267755945996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6907766613368402</v>
+        <v>0.8796049822390593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7816221751258766</v>
+        <v>0.8173732295081475</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7652770430023622</v>
+        <v>0.8482310309220698</v>
       </c>
       <c r="F15" t="n">
-        <v>18.96757125854492</v>
+        <v>13.67284488677979</v>
       </c>
       <c r="G15" t="n">
-        <v>19.58846282958984</v>
+        <v>17.2985897064209</v>
       </c>
       <c r="H15" t="n">
-        <v>15.13049983978271</v>
+        <v>30.04876327514648</v>
       </c>
       <c r="I15" t="n">
-        <v>17.49059104919434</v>
+        <v>23.29867935180664</v>
       </c>
     </row>
     <row r="16">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8508257548829902</v>
+        <v>0.8869755588191618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3268098874425294</v>
+        <v>0.8767742652833346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1941547660558494</v>
+        <v>0.8109177770973515</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3444175643906082</v>
+        <v>0.843572504563242</v>
       </c>
       <c r="F16" t="n">
-        <v>17.99045944213867</v>
+        <v>13.63078117370605</v>
       </c>
       <c r="G16" t="n">
-        <v>42.64477920532227</v>
+        <v>17.7053108215332</v>
       </c>
       <c r="H16" t="n">
-        <v>55.83369445800781</v>
+        <v>31.11092376708984</v>
       </c>
       <c r="I16" t="n">
-        <v>48.85131072998047</v>
+        <v>24.01383018493652</v>
       </c>
     </row>
     <row r="17">
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8594486125570429</v>
+        <v>0.8873153389061107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.373268598721157</v>
+        <v>0.8738996494144403</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1707260968656767</v>
+        <v>0.8049130598615692</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3550750914711042</v>
+        <v>0.8391193752766544</v>
       </c>
       <c r="F17" t="n">
-        <v>16.95053863525391</v>
+        <v>13.58980464935303</v>
       </c>
       <c r="G17" t="n">
-        <v>39.70174407958984</v>
+        <v>18.11834144592285</v>
       </c>
       <c r="H17" t="n">
-        <v>57.45697402954102</v>
+        <v>32.09891510009766</v>
       </c>
       <c r="I17" t="n">
-        <v>48.05715942382812</v>
+        <v>24.69744491577148</v>
       </c>
     </row>
     <row r="18">
@@ -978,121 +978,121 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8603071974333684</v>
+        <v>0.8876733019599401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3782395507195697</v>
+        <v>0.8710045911819563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1670465519918235</v>
+        <v>0.7994566006327575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3557027089437296</v>
+        <v>0.8349328518212147</v>
       </c>
       <c r="F18" t="n">
-        <v>16.84699440002441</v>
+        <v>13.54663276672363</v>
       </c>
       <c r="G18" t="n">
-        <v>39.38684844970703</v>
+        <v>18.53430938720703</v>
       </c>
       <c r="H18" t="n">
-        <v>57.71191024780273</v>
+        <v>32.9967041015625</v>
       </c>
       <c r="I18" t="n">
-        <v>48.01038360595703</v>
+        <v>25.34013557434082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_18</t>
+          <t>model_5_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8650527795574861</v>
+        <v>0.8880388591778564</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3879877395640456</v>
+        <v>0.8680121120491009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1406753055522435</v>
+        <v>0.7945344636932101</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3485505924299976</v>
+        <v>0.8309674163038024</v>
       </c>
       <c r="F19" t="n">
-        <v>16.2746753692627</v>
+        <v>13.50254726409912</v>
       </c>
       <c r="G19" t="n">
-        <v>38.76932144165039</v>
+        <v>18.96427345275879</v>
       </c>
       <c r="H19" t="n">
-        <v>59.53907012939453</v>
+        <v>33.80657577514648</v>
       </c>
       <c r="I19" t="n">
-        <v>48.5433349609375</v>
+        <v>25.94888687133789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_19</t>
+          <t>model_5_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.86708736171622</v>
+        <v>0.8884172602124818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3844766767647878</v>
+        <v>0.8649135553316493</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1277768653595238</v>
+        <v>0.79015385354395</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3413267067934249</v>
+        <v>0.8272226061928292</v>
       </c>
       <c r="F20" t="n">
-        <v>16.0293025970459</v>
+        <v>13.45691108703613</v>
       </c>
       <c r="G20" t="n">
-        <v>38.99174499511719</v>
+        <v>19.40947914123535</v>
       </c>
       <c r="H20" t="n">
-        <v>60.4327507019043</v>
+        <v>34.52734756469727</v>
       </c>
       <c r="I20" t="n">
-        <v>49.08163070678711</v>
+        <v>26.52376747131348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_17</t>
+          <t>model_5_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8671021363303367</v>
+        <v>0.8887913073773338</v>
       </c>
       <c r="C21" t="n">
-        <v>0.412759682301026</v>
+        <v>0.8616504798075275</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1747291914389931</v>
+        <v>0.7862762289796443</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3746001933586883</v>
+        <v>0.8236499818758088</v>
       </c>
       <c r="F21" t="n">
-        <v>16.02752113342285</v>
+        <v>13.4118013381958</v>
       </c>
       <c r="G21" t="n">
-        <v>37.20008850097656</v>
+        <v>19.87832450866699</v>
       </c>
       <c r="H21" t="n">
-        <v>57.17961502075195</v>
+        <v>35.16535568237305</v>
       </c>
       <c r="I21" t="n">
-        <v>46.60222625732422</v>
+        <v>27.07221794128418</v>
       </c>
     </row>
     <row r="22">
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8691503274430978</v>
+        <v>0.8891705550481991</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3956283865824267</v>
+        <v>0.8582283541782373</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1230407156749447</v>
+        <v>0.7829176367138864</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3442735003186868</v>
+        <v>0.8202603421866835</v>
       </c>
       <c r="F22" t="n">
-        <v>15.78050899505615</v>
+        <v>13.36606407165527</v>
       </c>
       <c r="G22" t="n">
-        <v>38.28531265258789</v>
+        <v>20.37001991271973</v>
       </c>
       <c r="H22" t="n">
-        <v>60.76089859008789</v>
+        <v>35.71796798706055</v>
       </c>
       <c r="I22" t="n">
-        <v>48.8620491027832</v>
+        <v>27.59257507324219</v>
       </c>
     </row>
     <row r="23">
@@ -1133,59 +1133,59 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8693497566093268</v>
+        <v>0.8895521799685406</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3931721500416593</v>
+        <v>0.8546605054143022</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1216076278207221</v>
+        <v>0.7800378030936841</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3425406835227573</v>
+        <v>0.8170399038839664</v>
       </c>
       <c r="F23" t="n">
-        <v>15.75645923614502</v>
+        <v>13.32003974914551</v>
       </c>
       <c r="G23" t="n">
-        <v>38.4409065246582</v>
+        <v>20.88265609741211</v>
       </c>
       <c r="H23" t="n">
-        <v>60.86019134521484</v>
+        <v>36.19180297851562</v>
       </c>
       <c r="I23" t="n">
-        <v>48.99116897583008</v>
+        <v>28.08695793151855</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_24</t>
+          <t>model_5_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8693906101143365</v>
+        <v>0.8899385869854597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3881101484260812</v>
+        <v>0.851002147480912</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1082604598737328</v>
+        <v>0.7775878243951212</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3344224407131117</v>
+        <v>0.813991443234917</v>
       </c>
       <c r="F24" t="n">
-        <v>15.75153064727783</v>
+        <v>13.27343845367432</v>
       </c>
       <c r="G24" t="n">
-        <v>38.76156997680664</v>
+        <v>21.40829849243164</v>
       </c>
       <c r="H24" t="n">
-        <v>61.78496170043945</v>
+        <v>36.59491729736328</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59610366821289</v>
+        <v>28.55494117736816</v>
       </c>
     </row>
     <row r="25">
@@ -1195,59 +1195,59 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8698734603736826</v>
+        <v>0.8903195816880839</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3911995571180543</v>
+        <v>0.8472275419775476</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1141983937280454</v>
+        <v>0.7755260656564668</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3384112585760946</v>
+        <v>0.8110812228878616</v>
       </c>
       <c r="F25" t="n">
-        <v>15.69329929351807</v>
+        <v>13.2274923324585</v>
       </c>
       <c r="G25" t="n">
-        <v>38.56586837768555</v>
+        <v>21.95063972473145</v>
       </c>
       <c r="H25" t="n">
-        <v>61.3735466003418</v>
+        <v>36.93415069580078</v>
       </c>
       <c r="I25" t="n">
-        <v>49.29887390136719</v>
+        <v>29.0016975402832</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_7_22</t>
+          <t>model_5_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8702166458586138</v>
+        <v>0.8906869632217371</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3954614035171788</v>
+        <v>0.8433984290636247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1203251459159113</v>
+        <v>0.7737180536395754</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3430098332120438</v>
+        <v>0.8082719379676069</v>
       </c>
       <c r="F26" t="n">
-        <v>15.65191078186035</v>
+        <v>13.18318367004395</v>
       </c>
       <c r="G26" t="n">
-        <v>38.2958869934082</v>
+        <v>22.50081443786621</v>
       </c>
       <c r="H26" t="n">
-        <v>60.94904708862305</v>
+        <v>37.23163604736328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.95621109008789</v>
+        <v>29.43296241760254</v>
       </c>
     </row>
   </sheetData>
